--- a/O-A0001-001坪林data.xlsx
+++ b/O-A0001-001坪林data.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
@@ -1675,6 +1675,738 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-07-30 17:00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>975.9</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2020-07-30T16:27:00+08:00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2020-07-30T11:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2020-07-30T05:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2020-07-30 17:40:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2020-07-30 17:00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>975.9</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2020-07-30T16:27:00+08:00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2020-07-30T11:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2020-07-30T05:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2020-07-30 17:42:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2020-07-30T19:32:00+08:00</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2020-07-30T11:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2020-07-30T05:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:00:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2020-07-30T19:32:00+08:00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2020-07-30T11:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2020-07-30T05:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:42:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:00:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2020-07-30T19:32:00+08:00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2020-07-30T11:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2020-07-30T05:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:43:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2020-07-30T19:32:00+08:00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2020-07-30T11:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2020-07-30T05:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2020-07-30 20:44:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/O-A0001-001坪林data.xlsx
+++ b/O-A0001-001坪林data.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
@@ -2407,6 +2407,2446 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2020-07-31 17:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>974.2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>19.3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2020-07-31T16:41:00+08:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2020-07-31T11:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2020-07-31T01:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2020-07-31 17:42:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2020-08-01 15:00:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>975.2</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2020-08-01T14:13:00+08:00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2020-08-01T11:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2020-08-01T05:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2020-08-01 16:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2020-08-01 15:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>975.2</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2020-08-01T14:13:00+08:00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2020-08-01T11:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2020-08-01T05:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2020-08-01 16:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2020-08-02 17:00:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>974.0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2020-08-02T12:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2020-08-02T05:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2020-08-02 17:42:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2020-08-03 16:00:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>24.2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>968.7</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2020-08-03T08:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2020-08-03T14:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2020-08-03 17:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-08-04 16:00:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>974.7</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2020-08-04T10:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2020-08-04T04:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2020-08-04 17:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2020-08-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>978.3</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2020-08-05T10:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2020-08-05T05:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2020-08-05 17:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2020-08-06 16:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>977.3</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2020-08-06T12:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2020-08-06T05:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2020-08-06 17:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2020-08-07 16:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>30.3</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>974.6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2020-08-07T11:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2020-08-07T05:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2020-08-07 17:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2020-08-10 16:00:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>973.1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2020-08-10T15:35:00+08:00</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2020-08-10T12:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2020-08-10T05:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2020-08-10 17:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2020-08-11 16:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>978.1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2020-08-11T12:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2020-08-11T05:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2020-08-11 17:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2020-08-12 16:00:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>980.4</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2020-08-12T12:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2020-08-12T06:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>2020-08-12 17:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2020-08-13 16:00:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>978.2</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2020-08-13T13:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2020-08-13T06:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>2020-08-13 17:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2020-08-14 16:00:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>31.6</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>975.4</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2020-08-14T12:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2020-08-14T05:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>2020-08-14 17:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2020-08-17 16:00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2020-08-17T15:02:00+08:00</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2020-08-17T14:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2020-08-17T03:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2020-08-17 17:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2020-08-18 16:00:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>28.2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>975.2</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2020-08-18T15:34:00+08:00</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2020-08-18T12:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2020-08-18T07:20:00+08:00</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2020-08-18 17:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2020-08-19 16:00:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>29.3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>975.4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2020-08-19T15:05:00+08:00</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2020-08-19T11:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2020-08-19T06:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2020-08-19 17:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2020-08-20 16:00:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>975.3</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2020-08-20T12:50:00+08:00</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2020-08-20T06:10:00+08:00</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2020-08-20 17:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2020-08-21 16:00:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>975.7</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2020-08-21T15:46:00+08:00</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2020-08-21T14:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2020-08-21T03:30:00+08:00</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2020-08-21 17:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C0A530</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>坪林</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>24.939975</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>121.701531</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2020-08-22 16:00:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>972.0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>-99</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2020-08-22T10:00:00+08:00</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2020-08-22T05:40:00+08:00</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>坪林區</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>2020-08-22 17:00:09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
